--- a/service/analytics/templates/basic_report.xlsx
+++ b/service/analytics/templates/basic_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Documents/Универ/4 курс/1 семестр/Диплом/Repos/analytics-service/service/analytics/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A65865E-4242-0B43-8974-2D24965E5BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF8D9A-FB7F-7943-993C-8CADEA9EF123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,48 +406,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="28.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
